--- a/AMS.Web/Temp/UVOZ PRODUKCIJA.xlsx
+++ b/AMS.Web/Temp/UVOZ PRODUKCIJA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matjaž\Desktop\riko\Inventura\riko bizjanova\Elektronika\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jankoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA63211F-93C9-4E1B-9907-39CE11FB4E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6754B4B-0888-4629-865B-D7A27C723E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCD29C75-A0A0-4695-AB9D-DA957F4FD0DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{BCD29C75-A0A0-4695-AB9D-DA957F4FD0DC}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="506">
-  <si>
-    <t>šifra</t>
-  </si>
-  <si>
-    <t>naziv</t>
-  </si>
-  <si>
-    <t>lokacija</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="501">
   <si>
     <t>Lenovo TP P16, tipk, miš, dock</t>
   </si>
@@ -1479,9 +1481,6 @@
     <t>3045</t>
   </si>
   <si>
-    <t>ZGODOVINA</t>
-  </si>
-  <si>
     <t>Prej Uroš G.</t>
   </si>
   <si>
@@ -1537,9 +1536,6 @@
   </si>
   <si>
     <t>prej M. Bahor</t>
-  </si>
-  <si>
-    <t>ZADOLŽENI</t>
   </si>
   <si>
     <t>Monitor Lenovo TW T27 na domu</t>
@@ -1549,7 +1545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1572,13 +1568,6 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1613,10 +1602,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1625,7 +1613,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dobro" xfId="1" builtinId="26"/>
@@ -1941,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EF942-9EE6-4626-A4A6-24558E0656E1}">
-  <dimension ref="A1:M290"/>
+  <dimension ref="A1:M289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A211" sqref="A11:G211"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1955,32 +1943,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>504</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
+      <c r="A2" s="3">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -2000,8 +1985,8 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
+      <c r="A3" s="3">
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2021,8 +2006,8 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2042,17 +2027,17 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2063,17 +2048,20 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>482</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2084,20 +2072,20 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
+      <c r="A7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2108,20 +2096,17 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
+      <c r="A8" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>495</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2132,17 +2117,17 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
+      <c r="A9" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2153,17 +2138,20 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>496</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2174,20 +2162,17 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
+      <c r="A11" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2198,17 +2183,17 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
+      <c r="A12" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2219,7 +2204,7 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
@@ -2229,7 +2214,7 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2240,7 +2225,7 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
@@ -2250,7 +2235,7 @@
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2261,17 +2246,17 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>44</v>
+      <c r="A15" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2282,17 +2267,17 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2303,17 +2288,17 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2324,17 +2309,17 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>53</v>
+      <c r="A18" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2345,17 +2330,17 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>57</v>
+      <c r="A19" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2366,7 +2351,7 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B20" t="s">
@@ -2376,49 +2361,52 @@
         <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>64</v>
+      <c r="A21" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>68</v>
+      <c r="A22" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>485</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2429,7 +2417,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
@@ -2439,10 +2427,7 @@
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>489</v>
+        <v>75</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2453,17 +2438,17 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>75</v>
+      <c r="A24" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2474,17 +2459,17 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B25" t="s">
         <v>80</v>
       </c>
       <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
         <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2495,17 +2480,17 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2516,14 +2501,14 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>85</v>
+      <c r="A27" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
         <v>88</v>
@@ -2537,17 +2522,20 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>484</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2558,20 +2546,20 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B29" t="s">
         <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2582,7 +2570,7 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B30" t="s">
@@ -2592,7 +2580,7 @@
         <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
         <v>498</v>
@@ -2606,20 +2594,17 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B31" t="s">
         <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2630,17 +2615,17 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
         <v>101</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>102</v>
       </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2651,7 +2636,7 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B33" t="s">
@@ -2661,7 +2646,10 @@
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>499</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2672,7 +2660,7 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B34" t="s">
@@ -2682,10 +2670,7 @@
         <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" t="s">
-        <v>503</v>
+        <v>109</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2696,17 +2681,17 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>109</v>
+      <c r="A35" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2717,17 +2702,17 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
         <v>113</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>114</v>
       </c>
-      <c r="C36" t="s">
-        <v>97</v>
-      </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2738,7 +2723,7 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B37" t="s">
@@ -2748,7 +2733,7 @@
         <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2759,7 +2744,7 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B38" t="s">
@@ -2769,7 +2754,7 @@
         <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2780,17 +2765,17 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>121</v>
+      <c r="A39" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2801,17 +2786,17 @@
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>125</v>
+      <c r="A40" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2822,17 +2807,17 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
         <v>125</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>126</v>
       </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2843,7 +2828,7 @@
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B42" t="s">
@@ -2853,7 +2838,7 @@
         <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2864,17 +2849,17 @@
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B43" t="s">
         <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2885,17 +2870,17 @@
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" t="s">
         <v>133</v>
       </c>
-      <c r="B44" t="s">
-        <v>134</v>
-      </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2906,17 +2891,17 @@
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
         <v>135</v>
       </c>
-      <c r="B45" t="s">
-        <v>136</v>
-      </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2927,17 +2912,17 @@
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="s">
         <v>137</v>
       </c>
-      <c r="B46" t="s">
-        <v>138</v>
-      </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2948,17 +2933,17 @@
       <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
         <v>139</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>140</v>
       </c>
-      <c r="C47" t="s">
-        <v>50</v>
-      </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2969,17 +2954,17 @@
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>141</v>
+      <c r="A48" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2990,17 +2975,20 @@
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
         <v>146</v>
       </c>
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" t="s">
-        <v>56</v>
+      <c r="E49" t="s">
+        <v>497</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3011,20 +2999,17 @@
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B50" t="s">
         <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" t="s">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3035,17 +3020,17 @@
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="B51" t="s">
-        <v>151</v>
-      </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3056,17 +3041,17 @@
       <c r="M51" s="1"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
         <v>152</v>
       </c>
-      <c r="B52" t="s">
-        <v>153</v>
-      </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3077,17 +3062,17 @@
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
         <v>154</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>155</v>
       </c>
-      <c r="C53" t="s">
-        <v>43</v>
-      </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3098,17 +3083,17 @@
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>156</v>
+      <c r="A54" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3119,17 +3104,17 @@
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B55" t="s">
         <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -3140,17 +3125,17 @@
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s">
         <v>163</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>164</v>
       </c>
-      <c r="C56" t="s">
-        <v>162</v>
-      </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -3161,7 +3146,7 @@
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B57" t="s">
@@ -3171,105 +3156,98 @@
         <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B58" t="s">
         <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="3"/>
+      <c r="J58" s="2"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" t="s">
         <v>171</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>172</v>
       </c>
-      <c r="C59" t="s">
-        <v>32</v>
-      </c>
       <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="E59" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B60" t="s">
         <v>174</v>
       </c>
       <c r="C60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D60" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="B61" t="s">
         <v>176</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>177</v>
       </c>
-      <c r="C61" t="s">
-        <v>120</v>
-      </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>178</v>
+      <c r="A62" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B63" t="s">
@@ -3279,334 +3257,334 @@
         <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B64" t="s">
         <v>186</v>
       </c>
       <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="B65" t="s">
         <v>188</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C65" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="B66" t="s">
         <v>190</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>191</v>
       </c>
-      <c r="C66" t="s">
-        <v>187</v>
-      </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B67" t="s">
         <v>193</v>
       </c>
       <c r="C67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>495</v>
+      </c>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="B68" t="s">
         <v>195</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>196</v>
       </c>
-      <c r="C68" t="s">
-        <v>194</v>
-      </c>
       <c r="D68" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" t="s">
-        <v>499</v>
+        <v>34</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B69" t="s">
         <v>198</v>
       </c>
       <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
         <v>199</v>
       </c>
-      <c r="D69" t="s">
-        <v>37</v>
-      </c>
-      <c r="J69" s="1"/>
+      <c r="H69" s="5"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B70" t="s">
         <v>201</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="B71" t="s">
         <v>203</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>204</v>
       </c>
-      <c r="C71" t="s">
-        <v>26</v>
-      </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>205</v>
+      <c r="A72" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B73" t="s">
         <v>211</v>
       </c>
       <c r="C73" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="B74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" t="s">
         <v>213</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>214</v>
       </c>
-      <c r="C74" t="s">
-        <v>212</v>
-      </c>
-      <c r="D74" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B76" t="s">
         <v>219</v>
       </c>
       <c r="C76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="B77" t="s">
         <v>221</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C77" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="B78" t="s">
         <v>223</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" t="s">
         <v>224</v>
       </c>
-      <c r="C78" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B79" t="s">
         <v>226</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D79" t="s">
+        <v>109</v>
+      </c>
+      <c r="E79" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="B80" t="s">
         <v>228</v>
       </c>
-      <c r="B80" t="s">
-        <v>229</v>
-      </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
-      </c>
-      <c r="E80" t="s">
-        <v>494</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B81" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>231</v>
       </c>
-      <c r="C81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C82" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="B83" t="s">
         <v>233</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>234</v>
       </c>
-      <c r="C83" t="s">
-        <v>199</v>
-      </c>
       <c r="D83" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B84" t="s">
         <v>236</v>
       </c>
       <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D84" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="B85" t="s">
         <v>238</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>239</v>
       </c>
-      <c r="C85" t="s">
-        <v>43</v>
-      </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B86" t="s">
@@ -3616,283 +3594,283 @@
         <v>242</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B87" t="s">
+        <v>229</v>
+      </c>
+      <c r="C87" t="s">
+        <v>242</v>
+      </c>
+      <c r="D87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
         <v>245</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C88" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" t="s">
+        <v>229</v>
+      </c>
+      <c r="C89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B90" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B88" t="s">
-        <v>232</v>
-      </c>
-      <c r="C88" t="s">
-        <v>245</v>
-      </c>
-      <c r="D88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B89" t="s">
-        <v>248</v>
-      </c>
-      <c r="C89" t="s">
-        <v>249</v>
-      </c>
-      <c r="D89" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B90" t="s">
-        <v>232</v>
-      </c>
-      <c r="C90" t="s">
-        <v>59</v>
-      </c>
-      <c r="D90" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+      <c r="B91" t="s">
         <v>251</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C91" t="s">
-        <v>40</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="B92" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C92" t="s">
-        <v>129</v>
-      </c>
-      <c r="D92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="B93" t="s">
         <v>255</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C93" t="s">
-        <v>220</v>
-      </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="B94" t="s">
         <v>257</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>258</v>
       </c>
-      <c r="C94" t="s">
-        <v>46</v>
-      </c>
       <c r="D94" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B95" t="s">
         <v>260</v>
       </c>
       <c r="C95" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D95" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="B96" t="s">
         <v>262</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C96" t="s">
-        <v>175</v>
-      </c>
-      <c r="D96" t="s">
-        <v>47</v>
-      </c>
-      <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="B97" t="s">
         <v>264</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>265</v>
       </c>
-      <c r="C97" t="s">
-        <v>105</v>
-      </c>
       <c r="D97" t="s">
+        <v>266</v>
+      </c>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" t="s">
+        <v>265</v>
+      </c>
+      <c r="D98" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B99" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B98" t="s">
-        <v>267</v>
-      </c>
-      <c r="C98" t="s">
-        <v>268</v>
-      </c>
-      <c r="D98" t="s">
-        <v>269</v>
-      </c>
-      <c r="H98" s="6"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B99" t="s">
-        <v>271</v>
-      </c>
-      <c r="C99" t="s">
-        <v>268</v>
-      </c>
-      <c r="D99" t="s">
-        <v>269</v>
-      </c>
-    </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B100" t="s">
         <v>273</v>
       </c>
       <c r="C100" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+      <c r="B101" t="s">
         <v>275</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>276</v>
       </c>
-      <c r="C101" t="s">
-        <v>77</v>
-      </c>
       <c r="D101" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B102" t="s">
         <v>278</v>
       </c>
       <c r="C102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+      <c r="B103" t="s">
         <v>280</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>281</v>
       </c>
-      <c r="C103" t="s">
-        <v>279</v>
-      </c>
       <c r="D103" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B104" t="s">
         <v>283</v>
       </c>
       <c r="C104" t="s">
+        <v>281</v>
+      </c>
+      <c r="D104" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D104" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+      <c r="B105" t="s">
         <v>285</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>286</v>
       </c>
-      <c r="C105" t="s">
-        <v>284</v>
-      </c>
       <c r="D105" t="s">
-        <v>78</v>
-      </c>
-      <c r="H105" s="6"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B106" t="s">
@@ -3902,53 +3880,55 @@
         <v>289</v>
       </c>
       <c r="D106" t="s">
-        <v>78</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>290</v>
+      <c r="A107" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="B107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C107" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
+      <c r="B108" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" t="s">
+        <v>281</v>
+      </c>
+      <c r="D108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>295</v>
       </c>
-      <c r="C108" t="s">
-        <v>289</v>
-      </c>
-      <c r="D108" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+      <c r="C109" t="s">
         <v>296</v>
       </c>
-      <c r="B109" t="s">
-        <v>286</v>
-      </c>
-      <c r="C109" t="s">
-        <v>284</v>
-      </c>
       <c r="D109" t="s">
-        <v>78</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H109" s="5"/>
+      <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B110" t="s">
@@ -3958,87 +3938,92 @@
         <v>299</v>
       </c>
       <c r="D110" t="s">
-        <v>23</v>
-      </c>
-      <c r="H110" s="6"/>
-      <c r="J110" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="H110" s="5"/>
+      <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B111" t="s">
         <v>301</v>
       </c>
       <c r="C111" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" t="s">
+        <v>91</v>
+      </c>
+      <c r="H111" s="5"/>
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D111" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" s="6"/>
-      <c r="J111" s="3"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+      <c r="B112" t="s">
         <v>303</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>304</v>
       </c>
-      <c r="C112" t="s">
-        <v>74</v>
-      </c>
       <c r="D112" t="s">
-        <v>94</v>
-      </c>
-      <c r="H112" s="6"/>
-      <c r="J112" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="H112" s="5"/>
+      <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B113" t="s">
+        <v>303</v>
+      </c>
+      <c r="C113" t="s">
+        <v>304</v>
+      </c>
+      <c r="D113" t="s">
+        <v>81</v>
+      </c>
+      <c r="H113" s="5"/>
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
         <v>307</v>
       </c>
-      <c r="D113" t="s">
-        <v>84</v>
-      </c>
-      <c r="H113" s="6"/>
-      <c r="J113" s="3"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+      <c r="C114" t="s">
+        <v>304</v>
+      </c>
+      <c r="D114" t="s">
+        <v>81</v>
+      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B114" t="s">
-        <v>306</v>
-      </c>
-      <c r="C114" t="s">
-        <v>307</v>
-      </c>
-      <c r="D114" t="s">
-        <v>84</v>
-      </c>
-      <c r="H114" s="6"/>
-      <c r="J114" s="3"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
+      <c r="B115" t="s">
+        <v>303</v>
+      </c>
+      <c r="C115" t="s">
         <v>309</v>
       </c>
-      <c r="B115" t="s">
-        <v>310</v>
-      </c>
-      <c r="C115" t="s">
-        <v>307</v>
-      </c>
       <c r="D115" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -4049,98 +4034,98 @@
       <c r="M115" s="1"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B116" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" t="s">
+        <v>309</v>
+      </c>
+      <c r="D116" t="s">
+        <v>81</v>
+      </c>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B116" t="s">
-        <v>306</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
         <v>312</v>
       </c>
-      <c r="D116" t="s">
-        <v>84</v>
-      </c>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+      <c r="C117" t="s">
+        <v>309</v>
+      </c>
+      <c r="D117" t="s">
+        <v>81</v>
+      </c>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B117" t="s">
-        <v>306</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>303</v>
+      </c>
+      <c r="C118" t="s">
+        <v>314</v>
+      </c>
+      <c r="D118" t="s">
+        <v>81</v>
+      </c>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B119" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" t="s">
+        <v>314</v>
+      </c>
+      <c r="D119" t="s">
+        <v>81</v>
+      </c>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B120" t="s">
         <v>312</v>
       </c>
-      <c r="D117" t="s">
-        <v>84</v>
-      </c>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+      <c r="C120" t="s">
         <v>314</v>
       </c>
-      <c r="B118" t="s">
-        <v>315</v>
-      </c>
-      <c r="C118" t="s">
-        <v>312</v>
-      </c>
-      <c r="D118" t="s">
-        <v>84</v>
-      </c>
-      <c r="H118" s="6"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B119" t="s">
-        <v>306</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="D120" t="s">
+        <v>81</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D119" t="s">
-        <v>84</v>
-      </c>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+      <c r="B121" t="s">
+        <v>303</v>
+      </c>
+      <c r="C121" t="s">
         <v>318</v>
       </c>
-      <c r="B120" t="s">
-        <v>306</v>
-      </c>
-      <c r="C120" t="s">
-        <v>317</v>
-      </c>
-      <c r="D120" t="s">
-        <v>84</v>
-      </c>
-      <c r="H120" s="6"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B121" t="s">
-        <v>315</v>
-      </c>
-      <c r="C121" t="s">
-        <v>317</v>
-      </c>
       <c r="D121" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -4151,17 +4136,17 @@
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>320</v>
+      <c r="A122" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="B122" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C122" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D122" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -4172,17 +4157,17 @@
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>322</v>
+      <c r="A123" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="B123" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C123" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D123" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -4193,17 +4178,17 @@
       <c r="M123" s="1"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B124" t="s">
         <v>323</v>
       </c>
-      <c r="B124" t="s">
-        <v>324</v>
-      </c>
       <c r="C124" t="s">
-        <v>321</v>
+        <v>63</v>
       </c>
       <c r="D124" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -4214,17 +4199,17 @@
       <c r="M124" s="1"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B125" t="s">
         <v>325</v>
       </c>
-      <c r="B125" t="s">
-        <v>326</v>
-      </c>
       <c r="C125" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="D125" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -4235,17 +4220,17 @@
       <c r="M125" s="1"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B126" t="s">
         <v>327</v>
       </c>
-      <c r="B126" t="s">
-        <v>328</v>
-      </c>
       <c r="C126" t="s">
-        <v>302</v>
+        <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -4256,17 +4241,17 @@
       <c r="M126" s="1"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B127" t="s">
         <v>329</v>
       </c>
-      <c r="B127" t="s">
-        <v>330</v>
-      </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -4277,17 +4262,17 @@
       <c r="M127" s="1"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B128" t="s">
         <v>331</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>332</v>
       </c>
-      <c r="C128" t="s">
-        <v>66</v>
-      </c>
       <c r="D128" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -4298,17 +4283,17 @@
       <c r="M128" s="1"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B129" t="s">
         <v>334</v>
       </c>
       <c r="C129" t="s">
-        <v>335</v>
+        <v>33</v>
       </c>
       <c r="D129" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -4319,17 +4304,17 @@
       <c r="M129" s="1"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B130" t="s">
         <v>336</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>337</v>
       </c>
-      <c r="C130" t="s">
-        <v>36</v>
-      </c>
       <c r="D130" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -4340,17 +4325,17 @@
       <c r="M130" s="1"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B131" t="s">
+        <v>336</v>
+      </c>
+      <c r="C131" t="s">
         <v>339</v>
       </c>
-      <c r="C131" t="s">
-        <v>340</v>
-      </c>
       <c r="D131" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -4361,17 +4346,17 @@
       <c r="M131" s="1"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B132" t="s">
         <v>341</v>
       </c>
-      <c r="B132" t="s">
-        <v>339</v>
-      </c>
       <c r="C132" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -4382,59 +4367,59 @@
       <c r="M132" s="1"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
-        <v>343</v>
+      <c r="A133" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="B133" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C133" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D133" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="J133" s="2"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>345</v>
+      <c r="A134" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="B134" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C134" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="3"/>
+      <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>346</v>
+      <c r="A135" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="B135" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C135" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="D135" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -4445,17 +4430,17 @@
       <c r="M135" s="1"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B136" t="s">
         <v>347</v>
       </c>
-      <c r="B136" t="s">
-        <v>348</v>
-      </c>
       <c r="C136" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="D136" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -4466,17 +4451,20 @@
       <c r="M136" s="1"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>349</v>
+      <c r="A137" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="B137" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>271</v>
       </c>
       <c r="D137" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>483</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -4487,20 +4475,17 @@
       <c r="M137" s="1"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
-        <v>351</v>
+      <c r="A138" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="B138" t="s">
         <v>350</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
-      </c>
-      <c r="E138" t="s">
-        <v>487</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -4511,17 +4496,17 @@
       <c r="M138" s="1"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B139" t="s">
         <v>353</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -4532,17 +4517,17 @@
       <c r="M139" s="1"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B140" t="s">
         <v>355</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>356</v>
       </c>
-      <c r="C140" t="s">
-        <v>354</v>
-      </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -4553,7 +4538,7 @@
       <c r="M140" s="1"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B141" t="s">
@@ -4563,7 +4548,7 @@
         <v>359</v>
       </c>
       <c r="D141" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -4574,17 +4559,17 @@
       <c r="M141" s="1"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="3" t="s">
         <v>360</v>
       </c>
       <c r="B142" t="s">
         <v>361</v>
       </c>
       <c r="C142" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -4595,17 +4580,17 @@
       <c r="M142" s="1"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B143" t="s">
         <v>363</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>364</v>
       </c>
-      <c r="C143" t="s">
-        <v>362</v>
-      </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -4616,17 +4601,17 @@
       <c r="M143" s="1"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B144" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C144" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D144" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -4637,17 +4622,17 @@
       <c r="M144" s="1"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B145" t="s">
+        <v>367</v>
+      </c>
+      <c r="C145" t="s">
         <v>368</v>
       </c>
-      <c r="B145" t="s">
-        <v>364</v>
-      </c>
-      <c r="C145" t="s">
-        <v>367</v>
-      </c>
       <c r="D145" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -4658,7 +4643,7 @@
       <c r="M145" s="1"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B146" t="s">
@@ -4668,7 +4653,10 @@
         <v>371</v>
       </c>
       <c r="D146" t="s">
-        <v>149</v>
+        <v>81</v>
+      </c>
+      <c r="E146" t="s">
+        <v>492</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -4679,7 +4667,7 @@
       <c r="M146" s="1"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>372</v>
       </c>
       <c r="B147" t="s">
@@ -4689,10 +4677,10 @@
         <v>374</v>
       </c>
       <c r="D147" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E147" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -4703,20 +4691,20 @@
       <c r="M147" s="1"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B148" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C148" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D148" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E148" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -4727,104 +4715,101 @@
       <c r="M148" s="1"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>378</v>
+      <c r="A149" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="B149" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C149" t="s">
-        <v>377</v>
+        <v>126</v>
       </c>
       <c r="D149" t="s">
-        <v>84</v>
-      </c>
-      <c r="E149" t="s">
-        <v>496</v>
+        <v>88</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
+      <c r="J149" s="2"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>379</v>
+      <c r="A150" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="B150" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C150" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D150" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="3"/>
+      <c r="J150" s="2"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>381</v>
+      <c r="A151" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="B151" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C151" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D151" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-      <c r="J151" s="3"/>
+      <c r="J151" s="6"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>382</v>
+      <c r="A152" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="B152" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C152" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D152" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="7"/>
+      <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>383</v>
+      <c r="A153" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="B153" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C153" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D153" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -4835,17 +4820,17 @@
       <c r="M153" s="1"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B154" t="s">
+        <v>383</v>
+      </c>
+      <c r="C154" t="s">
         <v>384</v>
       </c>
-      <c r="B154" t="s">
-        <v>380</v>
-      </c>
-      <c r="C154" t="s">
-        <v>129</v>
-      </c>
       <c r="D154" t="s">
-        <v>91</v>
+        <v>385</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -4856,17 +4841,17 @@
       <c r="M154" s="1"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>385</v>
+      <c r="A155" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="B155" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C155" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D155" t="s">
-        <v>388</v>
+        <v>8</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -4877,17 +4862,17 @@
       <c r="M155" s="1"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B156" t="s">
         <v>390</v>
       </c>
       <c r="C156" t="s">
-        <v>391</v>
+        <v>239</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -4898,17 +4883,17 @@
       <c r="M156" s="1"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B157" t="s">
         <v>392</v>
       </c>
-      <c r="B157" t="s">
-        <v>393</v>
-      </c>
       <c r="C157" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="D157" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -4919,17 +4904,17 @@
       <c r="M157" s="1"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B158" t="s">
         <v>394</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>395</v>
       </c>
-      <c r="C158" t="s">
-        <v>105</v>
-      </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -4940,7 +4925,7 @@
       <c r="M158" s="1"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B159" t="s">
@@ -4950,7 +4935,7 @@
         <v>398</v>
       </c>
       <c r="D159" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -4961,17 +4946,17 @@
       <c r="M159" s="1"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B160" t="s">
         <v>400</v>
       </c>
       <c r="C160" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -4982,17 +4967,17 @@
       <c r="M160" s="1"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B161" t="s">
         <v>402</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>403</v>
       </c>
-      <c r="C161" t="s">
-        <v>401</v>
-      </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -5003,17 +4988,17 @@
       <c r="M161" s="1"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B162" t="s">
         <v>405</v>
       </c>
       <c r="C162" t="s">
-        <v>406</v>
+        <v>213</v>
       </c>
       <c r="D162" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -5024,17 +5009,17 @@
       <c r="M162" s="1"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B163" t="s">
         <v>407</v>
       </c>
-      <c r="B163" t="s">
-        <v>408</v>
-      </c>
       <c r="C163" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -5045,17 +5030,17 @@
       <c r="M163" s="1"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>409</v>
+      <c r="A164" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="B164" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>388</v>
       </c>
       <c r="D164" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -5066,17 +5051,17 @@
       <c r="M164" s="1"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
-        <v>411</v>
+      <c r="A165" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="B165" t="s">
         <v>410</v>
       </c>
       <c r="C165" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -5087,17 +5072,17 @@
       <c r="M165" s="1"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B166" t="s">
         <v>412</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>413</v>
       </c>
-      <c r="C166" t="s">
-        <v>354</v>
-      </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -5108,70 +5093,70 @@
       <c r="M166" s="1"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B167" t="s">
         <v>415</v>
       </c>
       <c r="C167" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D167" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
+      <c r="J167" s="2"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B168" t="s">
         <v>417</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
+        <v>177</v>
+      </c>
+      <c r="D168" t="s">
         <v>418</v>
-      </c>
-      <c r="C168" t="s">
-        <v>416</v>
-      </c>
-      <c r="D168" t="s">
-        <v>94</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="3"/>
+      <c r="J168" s="2"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B169" t="s">
         <v>420</v>
       </c>
       <c r="C169" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="D169" t="s">
-        <v>421</v>
+        <v>214</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="3"/>
+      <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B170" t="s">
@@ -5181,7 +5166,7 @@
         <v>424</v>
       </c>
       <c r="D170" t="s">
-        <v>217</v>
+        <v>424</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -5192,17 +5177,17 @@
       <c r="M170" s="1"/>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B171" t="s">
         <v>426</v>
       </c>
       <c r="C171" t="s">
-        <v>427</v>
+        <v>289</v>
       </c>
       <c r="D171" t="s">
-        <v>427</v>
+        <v>290</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -5213,17 +5198,17 @@
       <c r="M171" s="1"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B172" t="s">
         <v>428</v>
       </c>
-      <c r="B172" t="s">
-        <v>429</v>
-      </c>
       <c r="C172" t="s">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="D172" t="s">
-        <v>293</v>
+        <v>121</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -5234,17 +5219,17 @@
       <c r="M172" s="1"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B173" t="s">
         <v>430</v>
       </c>
-      <c r="B173" t="s">
-        <v>431</v>
-      </c>
       <c r="C173" t="s">
-        <v>406</v>
+        <v>299</v>
       </c>
       <c r="D173" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -5255,17 +5240,17 @@
       <c r="M173" s="1"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B174" t="s">
         <v>432</v>
       </c>
-      <c r="B174" t="s">
-        <v>433</v>
-      </c>
       <c r="C174" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -5276,17 +5261,17 @@
       <c r="M174" s="1"/>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B175" t="s">
         <v>434</v>
       </c>
-      <c r="B175" t="s">
-        <v>435</v>
-      </c>
       <c r="C175" t="s">
-        <v>391</v>
+        <v>126</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>487</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -5297,17 +5282,17 @@
       <c r="M175" s="1"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B176" t="s">
         <v>436</v>
       </c>
-      <c r="B176" t="s">
-        <v>437</v>
-      </c>
       <c r="C176" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D176" t="s">
-        <v>491</v>
+        <v>88</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -5318,17 +5303,17 @@
       <c r="M176" s="1"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B177" t="s">
         <v>438</v>
       </c>
-      <c r="B177" t="s">
-        <v>439</v>
-      </c>
       <c r="C177" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D177" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -5339,59 +5324,59 @@
       <c r="M177" s="1"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B178" t="s">
         <v>440</v>
       </c>
-      <c r="B178" t="s">
-        <v>441</v>
-      </c>
       <c r="C178" t="s">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="D178" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
+      <c r="J178" s="2"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B179" t="s">
         <v>442</v>
       </c>
-      <c r="B179" t="s">
-        <v>443</v>
-      </c>
       <c r="C179" t="s">
-        <v>398</v>
+        <v>204</v>
       </c>
       <c r="D179" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-      <c r="J179" s="3"/>
+      <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A180" s="4" t="s">
-        <v>444</v>
+      <c r="A180" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="B180" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C180" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="D180" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -5402,17 +5387,17 @@
       <c r="M180" s="1"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
-        <v>446</v>
+      <c r="A181" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="B181" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="D181" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -5423,17 +5408,17 @@
       <c r="M181" s="1"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
-        <v>447</v>
+      <c r="A182" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="B182" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C182" t="s">
-        <v>209</v>
+        <v>446</v>
       </c>
       <c r="D182" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -5444,17 +5429,17 @@
       <c r="M182" s="1"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A183" s="4" t="s">
-        <v>448</v>
+      <c r="A183" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="B183" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C183" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D183" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -5465,17 +5450,17 @@
       <c r="M183" s="1"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
-        <v>450</v>
+      <c r="A184" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="B184" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C184" t="s">
-        <v>449</v>
+        <v>368</v>
       </c>
       <c r="D184" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -5486,17 +5471,17 @@
       <c r="M184" s="1"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A185" s="4" t="s">
-        <v>451</v>
+      <c r="A185" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="B185" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C185" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -5507,17 +5492,17 @@
       <c r="M185" s="1"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A186" s="4" t="s">
-        <v>453</v>
+      <c r="A186" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="B186" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C186" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="D186" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -5528,17 +5513,17 @@
       <c r="M186" s="1"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A187" s="4" t="s">
-        <v>454</v>
+      <c r="A187" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="B187" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C187" t="s">
-        <v>449</v>
+        <v>84</v>
       </c>
       <c r="D187" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -5549,17 +5534,17 @@
       <c r="M187" s="1"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A188" s="4" t="s">
-        <v>456</v>
+      <c r="A188" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="B188" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C188" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D188" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -5570,17 +5555,17 @@
       <c r="M188" s="1"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A189" s="4" t="s">
-        <v>457</v>
+      <c r="A189" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="B189" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C189" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -5591,17 +5576,17 @@
       <c r="M189" s="1"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B190" t="s">
         <v>458</v>
       </c>
-      <c r="B190" t="s">
-        <v>459</v>
-      </c>
       <c r="C190" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D190" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -5612,17 +5597,17 @@
       <c r="M190" s="1"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B191" t="s">
         <v>460</v>
       </c>
-      <c r="B191" t="s">
-        <v>461</v>
-      </c>
       <c r="C191" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D191" t="s">
-        <v>23</v>
+        <v>488</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -5633,17 +5618,17 @@
       <c r="M191" s="1"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A192" s="4" t="s">
-        <v>462</v>
+      <c r="A192" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="B192" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C192" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D192" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -5654,17 +5639,17 @@
       <c r="M192" s="1"/>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A193" s="4" t="s">
-        <v>464</v>
+      <c r="A193" s="3">
+        <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C193" t="s">
-        <v>70</v>
+        <v>309</v>
       </c>
       <c r="D193" t="s">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -5675,17 +5660,17 @@
       <c r="M193" s="1"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A194" s="4">
-        <v>6</v>
+      <c r="A194" s="3">
+        <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C194" t="s">
-        <v>312</v>
+        <v>206</v>
       </c>
       <c r="D194" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -5696,17 +5681,17 @@
       <c r="M194" s="1"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A195" s="4">
-        <v>7</v>
+      <c r="A195" s="3">
+        <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C195" t="s">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="D195" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -5717,17 +5702,17 @@
       <c r="M195" s="1"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A196" s="4">
-        <v>8</v>
+      <c r="A196" s="3">
+        <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C196" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="D196" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -5738,17 +5723,17 @@
       <c r="M196" s="1"/>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A197" s="4">
-        <v>9</v>
+      <c r="A197" s="3">
+        <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C197" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="D197" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -5759,17 +5744,17 @@
       <c r="M197" s="1"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A198" s="4">
-        <v>10</v>
+      <c r="A198" s="3">
+        <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C198" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D198" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -5780,59 +5765,59 @@
       <c r="M198" s="1"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A199" s="4">
-        <v>11</v>
+      <c r="A199" s="3">
+        <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C199" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D199" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
+      <c r="J199" s="6"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A200" s="4">
-        <v>12</v>
+      <c r="A200" s="3">
+        <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C200" t="s">
-        <v>469</v>
+        <v>67</v>
       </c>
       <c r="D200" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-      <c r="J200" s="7"/>
+      <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A201" s="4">
-        <v>13</v>
+      <c r="A201" s="3">
+        <v>14</v>
       </c>
       <c r="B201" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C201" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D201" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -5843,17 +5828,17 @@
       <c r="M201" s="1"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A202" s="4">
-        <v>14</v>
+      <c r="A202" s="3">
+        <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C202" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D202" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -5864,59 +5849,59 @@
       <c r="M202" s="1"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A203" s="4">
-        <v>15</v>
+      <c r="A203" s="3">
+        <v>16</v>
       </c>
       <c r="B203" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C203" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D203" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
+      <c r="J203" s="2"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A204" s="4">
-        <v>16</v>
+      <c r="A204" s="3">
+        <v>17</v>
       </c>
       <c r="B204" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C204" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D204" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-      <c r="J204" s="3"/>
+      <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A205" s="4">
-        <v>17</v>
+      <c r="A205" s="3">
+        <v>18</v>
       </c>
       <c r="B205" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C205" t="s">
-        <v>70</v>
+        <v>473</v>
       </c>
       <c r="D205" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -5927,17 +5912,17 @@
       <c r="M205" s="1"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A206" s="4">
-        <v>18</v>
+      <c r="A206" s="3">
+        <v>19</v>
       </c>
       <c r="B206" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C206" t="s">
-        <v>476</v>
+        <v>67</v>
       </c>
       <c r="D206" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -5948,17 +5933,17 @@
       <c r="M206" s="1"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A207" s="4">
-        <v>19</v>
-      </c>
-      <c r="B207" t="s">
-        <v>477</v>
+      <c r="A207" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="C207" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D207" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -5969,17 +5954,17 @@
       <c r="M207" s="1"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="C208" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D208" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -5990,17 +5975,17 @@
       <c r="M208" s="1"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>481</v>
+      <c r="A209" s="3">
+        <v>20</v>
+      </c>
+      <c r="B209" t="s">
+        <v>479</v>
       </c>
       <c r="C209" t="s">
-        <v>87</v>
+        <v>332</v>
       </c>
       <c r="D209" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -6011,17 +5996,17 @@
       <c r="M209" s="1"/>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A210" s="4">
+      <c r="A210" s="3">
+        <v>21</v>
+      </c>
+      <c r="B210" t="s">
+        <v>500</v>
+      </c>
+      <c r="C210" t="s">
+        <v>40</v>
+      </c>
+      <c r="D210" t="s">
         <v>20</v>
-      </c>
-      <c r="B210" t="s">
-        <v>482</v>
-      </c>
-      <c r="C210" t="s">
-        <v>335</v>
-      </c>
-      <c r="D210" t="s">
-        <v>37</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -6032,18 +6017,6 @@
       <c r="M210" s="1"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A211" s="4">
-        <v>21</v>
-      </c>
-      <c r="B211" t="s">
-        <v>505</v>
-      </c>
-      <c r="C211" t="s">
-        <v>43</v>
-      </c>
-      <c r="D211" t="s">
-        <v>23</v>
-      </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -6056,7 +6029,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
+      <c r="J212" s="2"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
@@ -6065,7 +6038,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="3"/>
+      <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
@@ -6194,7 +6167,6 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
     </row>
     <row r="228" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G228" s="1"/>
@@ -6203,6 +6175,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
     </row>
     <row r="229" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G229" s="1"/>
@@ -6280,7 +6253,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
+      <c r="J237" s="2"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
@@ -6289,7 +6262,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
-      <c r="J238" s="3"/>
+      <c r="J238" s="2"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
@@ -6298,7 +6271,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
-      <c r="J239" s="3"/>
+      <c r="J239" s="2"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
@@ -6307,7 +6280,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
-      <c r="J240" s="3"/>
+      <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
@@ -6334,7 +6307,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
+      <c r="J243" s="2"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
@@ -6343,7 +6316,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
-      <c r="J244" s="3"/>
+      <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
@@ -6442,7 +6415,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
+      <c r="J255" s="2"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
@@ -6451,7 +6424,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
-      <c r="J256" s="3"/>
+      <c r="J256" s="2"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
@@ -6460,7 +6433,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
-      <c r="J257" s="3"/>
+      <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
@@ -6514,7 +6487,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
-      <c r="J263" s="1"/>
+      <c r="J263" s="2"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
@@ -6523,7 +6496,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
-      <c r="J264" s="3"/>
+      <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
@@ -6577,7 +6550,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
-      <c r="J270" s="1"/>
+      <c r="J270" s="2"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
@@ -6586,7 +6559,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
-      <c r="J271" s="3"/>
+      <c r="J271" s="1"/>
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
@@ -6655,21 +6628,15 @@
       <c r="M278" s="1"/>
     </row>
     <row r="279" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G279" s="1"/>
-      <c r="H279" s="1"/>
-      <c r="I279" s="1"/>
       <c r="J279" s="1"/>
-      <c r="K279" s="1"/>
       <c r="L279" s="1"/>
-      <c r="M279" s="1"/>
     </row>
     <row r="280" spans="7:13" x14ac:dyDescent="0.3">
       <c r="J280" s="1"/>
       <c r="L280" s="1"/>
     </row>
-    <row r="281" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="J281" s="1"/>
-      <c r="L281" s="1"/>
+    <row r="282" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G282" s="1"/>
     </row>
     <row r="283" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G283" s="1"/>
@@ -6691,9 +6658,6 @@
     </row>
     <row r="289" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G289" s="1"/>
-    </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G290" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
